--- a/biology/Médecine/Samuel_Jankélévitch/Samuel_Jankélévitch.xlsx
+++ b/biology/Médecine/Samuel_Jankélévitch/Samuel_Jankélévitch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samuel_Jank%C3%A9l%C3%A9vitch</t>
+          <t>Samuel_Jankélévitch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Jankélévitch (1869-1951), médecin de profession, est un traducteur de nationalité russe, ayant passé la plus grande partie de sa vie en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel_Jank%C3%A9l%C3%A9vitch</t>
+          <t>Samuel_Jankélévitch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Jankélévitch est né à Odessa le 30 avril 1869. Touché par les lois discriminatoires de l’Empire russe à l’égard des Juifs, il émigre en France.
 Jankélévitch étudie la médecine à Montpellier, où il rencontre sa future épouse Anna Ryss, également issue de l’émigration russe. Après l'obtention par Samuel, en 1895, de son diplôme en oto-rhino-laryngologie, le couple s’installe à Bourges, où naissent leurs trois enfants : Ida (épouse de Jean Cassou), Vladimir (le philosophe) et Léon (diplomate en Extrême-Orient). La famille Jankélévitch s’établit ultérieurement à Paris.
-Parallèlement à son activité de médecin, Jankélévitch traduit de nombreux ouvrages, de l’allemand, de l’anglais, du russe et de l’italien, dans plusieurs domaines : philosophie, psychologie, médecine, etc. En 1947, il publie Révolution et Tradition où il reproche à Darwin, Marx et Nietzsche d'avoir conduit à toutes les dictatures. Il y écrit notamment : « "[…] les élites spirituelles de l’humanité […] auront à charge de réduire la séparation entre l’individu et le social. Le bonheur des hommes est à ce prix »[1]. 
+Parallèlement à son activité de médecin, Jankélévitch traduit de nombreux ouvrages, de l’allemand, de l’anglais, du russe et de l’italien, dans plusieurs domaines : philosophie, psychologie, médecine, etc. En 1947, il publie Révolution et Tradition où il reproche à Darwin, Marx et Nietzsche d'avoir conduit à toutes les dictatures. Il y écrit notamment : « "[…] les élites spirituelles de l’humanité […] auront à charge de réduire la séparation entre l’individu et le social. Le bonheur des hommes est à ce prix ». 
 Il entretiendra avec Sigmund Freud une correspondance, aujourd'hui perdue, et sera notamment, dans les années 1920, le premier traducteur en langue française de ses œuvres, publiées à Paris aux éditions Payot.
-Il meurt le 16 décembre 1951 dans le 6e arrondissement de Paris[2].
+Il meurt le 16 décembre 1951 dans le 6e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samuel_Jank%C3%A9l%C3%A9vitch</t>
+          <t>Samuel_Jankélévitch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jacob Boehme, Mysterium magnum (avec deux études de N. Berdiaev), 2 volumes, Paris, Aubier, 1945.
 Benedetto Croce, Philosophie de la pratique, économie et éthique (avec Henri Buriot), Paris, 1910.
